--- a/timelog.xlsx
+++ b/timelog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E8ED468-992E-4D47-BECB-B489418AFC70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C651D6-9611-44E8-8FD1-2DF87DE46988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="21750" windowHeight="15585" xr2:uid="{D719600F-286D-46C4-B63B-61331A22EB4A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="28">
   <si>
     <t>STAGE 1</t>
   </si>
@@ -109,6 +109,15 @@
   </si>
   <si>
     <t>Build 182</t>
+  </si>
+  <si>
+    <t>Differenza</t>
+  </si>
+  <si>
+    <t>Pipeline 1</t>
+  </si>
+  <si>
+    <t>Pipeline 2</t>
   </si>
 </sst>
 </file>
@@ -116,7 +125,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -161,7 +170,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -216,6 +225,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -233,40 +248,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="21" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="21" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="21" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="21" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="21" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="21" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="21" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="21" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="21" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="21" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="21" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="21" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="21" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="5" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -590,15 +607,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B14F97B-20B7-444A-B012-6F3B6116874A}">
   <dimension ref="A2:I108"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G60" sqref="G60"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
     <col min="4" max="4" width="11.140625" customWidth="1"/>
     <col min="5" max="5" width="10.140625" customWidth="1"/>
     <col min="6" max="6" width="35" style="2" customWidth="1"/>
@@ -624,13 +641,13 @@
       <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="11">
         <v>0.46480324074074075</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="11">
         <v>0.46482638888888889</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="15">
         <f>C4-B4</f>
         <v>2.3148148148133263E-5</v>
       </c>
@@ -642,13 +659,13 @@
       <c r="A5" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="11">
         <v>0.46486111111111111</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="11">
         <v>0.46528935185185183</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="16">
         <f>C5-B5</f>
         <v>4.2824074074071516E-4</v>
       </c>
@@ -660,13 +677,13 @@
       <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="11">
         <v>0.46531250000000002</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="11">
         <v>0.46589120370370368</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="17">
         <f t="shared" ref="D6:D10" si="0">C6-B6</f>
         <v>5.7870370370366464E-4</v>
       </c>
@@ -678,13 +695,13 @@
       <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="11">
         <v>0.4659490740740741</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="11">
         <v>0.46663194444444445</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="18">
         <f t="shared" si="0"/>
         <v>6.8287037037034759E-4</v>
       </c>
@@ -696,13 +713,13 @@
       <c r="A8" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="11">
         <v>0.46666666666666667</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="11">
         <v>0.46692129629629631</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="19">
         <f t="shared" si="0"/>
         <v>2.5462962962963243E-4</v>
       </c>
@@ -714,13 +731,13 @@
       <c r="A9" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="11">
         <v>0.46695601851851853</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="11">
         <v>0.46695601851851853</v>
       </c>
-      <c r="D9" s="24">
+      <c r="D9" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -732,30 +749,29 @@
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="11">
         <v>0.46697916666666667</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="11">
         <v>0.46702546296296299</v>
       </c>
-      <c r="D10" s="25">
+      <c r="D10" s="21">
         <f t="shared" si="0"/>
         <v>4.6296296296322037E-5</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I10" s="13"/>
+      <c r="I10" s="12"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I11" s="13"/>
+      <c r="I11" s="12"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="10"/>
-      <c r="I12" s="13"/>
+      <c r="I12" s="12"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
@@ -767,36 +783,35 @@
       <c r="D13" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="10"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="11">
         <v>0.47488425925925926</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="11">
         <v>0.47490740740740739</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="15">
         <f>C14-B14</f>
         <v>2.3148148148133263E-5</v>
       </c>
       <c r="F14" s="3"/>
-      <c r="I14" s="13"/>
+      <c r="I14" s="12"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="11">
         <v>0.47494212962962962</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="11">
         <v>0.47538194444444443</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="16">
         <f>C15-B15</f>
         <v>4.3981481481480955E-4</v>
       </c>
@@ -806,13 +821,13 @@
       <c r="A16" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="11">
         <v>0.47541666666666665</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="11">
         <v>0.47568287037037038</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D16" s="17">
         <f t="shared" ref="D16:D20" si="1">C16-B16</f>
         <v>2.6620370370372681E-4</v>
       </c>
@@ -822,13 +837,13 @@
       <c r="A17" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="11">
         <v>0.47571759259259261</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="11">
         <v>0.47631944444444446</v>
       </c>
-      <c r="D17" s="22">
+      <c r="D17" s="18">
         <f t="shared" si="1"/>
         <v>6.0185185185185341E-4</v>
       </c>
@@ -838,13 +853,13 @@
       <c r="A18" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18" s="11">
         <v>0.47635416666666669</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="11">
         <v>0.47659722222222223</v>
       </c>
-      <c r="D18" s="23">
+      <c r="D18" s="19">
         <f t="shared" si="1"/>
         <v>2.4305555555553804E-4</v>
       </c>
@@ -854,13 +869,13 @@
       <c r="A19" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19" s="11">
         <v>0.47662037037037036</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="11">
         <v>0.47663194444444446</v>
       </c>
-      <c r="D19" s="24">
+      <c r="D19" s="20">
         <f t="shared" si="1"/>
         <v>1.1574074074094387E-5</v>
       </c>
@@ -870,26 +885,22 @@
       <c r="A20" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20" s="11">
         <v>0.47664351851851849</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="11">
         <v>0.47666666666666668</v>
       </c>
-      <c r="D20" s="25">
+      <c r="D20" s="21">
         <f t="shared" si="1"/>
         <v>2.3148148148188774E-5</v>
       </c>
       <c r="F20" s="9"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F21" s="10"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
-      <c r="F22" s="10"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
@@ -901,125 +912,118 @@
       <c r="D23" t="s">
         <v>8</v>
       </c>
-      <c r="F23" s="10"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="12">
+      <c r="B24" s="11">
         <v>0.48249999999999998</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="11">
         <v>0.48252314814814817</v>
       </c>
-      <c r="D24" s="19">
+      <c r="D24" s="15">
         <f>C24-B24</f>
         <v>2.3148148148188774E-5</v>
       </c>
-      <c r="F24" s="11"/>
+      <c r="F24" s="10"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="12">
+      <c r="B25" s="11">
         <v>0.48254629629629631</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="11">
         <v>0.48295138888888889</v>
       </c>
-      <c r="D25" s="20">
+      <c r="D25" s="16">
         <f>C25-B25</f>
         <v>4.050925925925819E-4</v>
       </c>
-      <c r="F25" s="12"/>
+      <c r="F25" s="11"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="12">
+      <c r="B26" s="11">
         <v>0.48298611111111112</v>
       </c>
-      <c r="C26" s="12">
+      <c r="C26" s="11">
         <v>0.48322916666666665</v>
       </c>
-      <c r="D26" s="21">
+      <c r="D26" s="17">
         <f t="shared" ref="D26:D30" si="2">C26-B26</f>
         <v>2.4305555555553804E-4</v>
       </c>
-      <c r="F26" s="12"/>
+      <c r="F26" s="11"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="12">
+      <c r="B27" s="11">
         <v>0.48326388888888888</v>
       </c>
-      <c r="C27" s="12">
+      <c r="C27" s="11">
         <v>0.48381944444444447</v>
       </c>
-      <c r="D27" s="22">
+      <c r="D27" s="18">
         <f>C27-B27</f>
         <v>5.5555555555558689E-4</v>
       </c>
-      <c r="F27" s="12"/>
+      <c r="F27" s="11"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="12">
+      <c r="B28" s="11">
         <v>0.48385416666666664</v>
       </c>
-      <c r="C28" s="12">
+      <c r="C28" s="11">
         <v>0.48409722222222223</v>
       </c>
-      <c r="D28" s="23">
+      <c r="D28" s="19">
         <f t="shared" si="2"/>
         <v>2.4305555555559355E-4</v>
       </c>
-      <c r="F28" s="12"/>
+      <c r="F28" s="11"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="12">
+      <c r="B29" s="11">
         <v>0.48412037037037037</v>
       </c>
-      <c r="C29" s="12">
+      <c r="C29" s="11">
         <v>0.48413194444444446</v>
       </c>
-      <c r="D29" s="24">
+      <c r="D29" s="20">
         <f t="shared" si="2"/>
         <v>1.1574074074094387E-5</v>
       </c>
-      <c r="F29" s="12"/>
+      <c r="F29" s="11"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="12">
+      <c r="B30" s="11">
         <v>0.48413194444444446</v>
       </c>
-      <c r="C30" s="12">
+      <c r="C30" s="11">
         <v>0.48416666666666669</v>
       </c>
-      <c r="D30" s="25">
+      <c r="D30" s="21">
         <f t="shared" si="2"/>
         <v>3.472222222222765E-5</v>
       </c>
-      <c r="F30" s="12"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F31" s="10"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F32" s="10"/>
+      <c r="F30" s="11"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -1036,7 +1040,7 @@
       <c r="D34" t="s">
         <v>8</v>
       </c>
-      <c r="F34" s="18" t="s">
+      <c r="F34" s="25" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1047,7 +1051,7 @@
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="3"/>
-      <c r="F35" s="18"/>
+      <c r="F35" s="25"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -1056,7 +1060,7 @@
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="4"/>
-      <c r="F36" s="18"/>
+      <c r="F36" s="25"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -1065,23 +1069,23 @@
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="5"/>
-      <c r="F37" s="18"/>
+      <c r="F37" s="25"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>3</v>
       </c>
-      <c r="B38" s="12">
+      <c r="B38" s="11">
         <v>0.57876157407407403</v>
       </c>
-      <c r="C38" s="12">
+      <c r="C38" s="11">
         <v>0.5793518518518519</v>
       </c>
-      <c r="D38" s="22">
+      <c r="D38" s="18">
         <f>C38-B38</f>
         <v>5.9027777777787005E-4</v>
       </c>
-      <c r="F38" s="18"/>
+      <c r="F38" s="25"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
@@ -1090,7 +1094,7 @@
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="7"/>
-      <c r="F39" s="18"/>
+      <c r="F39" s="25"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
@@ -1099,7 +1103,7 @@
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="8"/>
-      <c r="F40" s="18"/>
+      <c r="F40" s="25"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
@@ -1108,7 +1112,7 @@
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="9"/>
-      <c r="F41" s="18"/>
+      <c r="F41" s="25"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -1130,17 +1134,17 @@
       <c r="A46" t="s">
         <v>0</v>
       </c>
-      <c r="B46" s="12">
+      <c r="B46" s="11">
         <v>0.6091550925925926</v>
       </c>
-      <c r="C46" s="12">
+      <c r="C46" s="11">
         <v>0.61004629629629625</v>
       </c>
-      <c r="D46" s="26">
+      <c r="D46" s="22">
         <f>C46-B46</f>
         <v>8.9120370370365798E-4</v>
       </c>
-      <c r="F46" s="14" t="s">
+      <c r="F46" s="13" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1148,13 +1152,13 @@
       <c r="A47" t="s">
         <v>1</v>
       </c>
-      <c r="B47" s="12">
+      <c r="B47" s="11">
         <v>0.61006944444444444</v>
       </c>
-      <c r="C47" s="12">
+      <c r="C47" s="11">
         <v>0.61031250000000004</v>
       </c>
-      <c r="D47" s="21">
+      <c r="D47" s="17">
         <f>C47-B47</f>
         <v>2.4305555555559355E-4</v>
       </c>
@@ -1166,13 +1170,13 @@
       <c r="A48" t="s">
         <v>2</v>
       </c>
-      <c r="B48" s="12">
+      <c r="B48" s="11">
         <v>0.61033564814814811</v>
       </c>
-      <c r="C48" s="12">
+      <c r="C48" s="11">
         <v>0.61057870370370371</v>
       </c>
-      <c r="D48" s="23">
+      <c r="D48" s="19">
         <f t="shared" ref="D48" si="3">C48-B48</f>
         <v>2.4305555555559355E-4</v>
       </c>
@@ -1184,13 +1188,13 @@
       <c r="A49" t="s">
         <v>3</v>
       </c>
-      <c r="B49" s="12">
+      <c r="B49" s="11">
         <v>0.6106018518518519</v>
       </c>
-      <c r="C49" s="12">
+      <c r="C49" s="11">
         <v>0.61061342592592593</v>
       </c>
-      <c r="D49" s="24">
+      <c r="D49" s="20">
         <f>C49-B49</f>
         <v>1.1574074074038876E-5</v>
       </c>
@@ -1202,13 +1206,13 @@
       <c r="A50" t="s">
         <v>9</v>
       </c>
-      <c r="B50" s="12">
+      <c r="B50" s="11">
         <v>0.61062499999999997</v>
       </c>
-      <c r="C50" s="12">
+      <c r="C50" s="11">
         <v>0.61064814814814816</v>
       </c>
-      <c r="D50" s="25">
+      <c r="D50" s="21">
         <f t="shared" ref="D50" si="4">C50-B50</f>
         <v>2.3148148148188774E-5</v>
       </c>
@@ -1236,13 +1240,13 @@
       <c r="A55" t="s">
         <v>0</v>
       </c>
-      <c r="B55" s="12">
+      <c r="B55" s="11">
         <v>0.64156250000000004</v>
       </c>
-      <c r="C55" s="12">
+      <c r="C55" s="11">
         <v>0.64253472222222219</v>
       </c>
-      <c r="D55" s="26">
+      <c r="D55" s="22">
         <f>C55-B55</f>
         <v>9.7222222222215215E-4</v>
       </c>
@@ -1251,13 +1255,13 @@
       <c r="A56" t="s">
         <v>1</v>
       </c>
-      <c r="B56" s="12">
+      <c r="B56" s="11">
         <v>0.64255787037037038</v>
       </c>
-      <c r="C56" s="12">
+      <c r="C56" s="11">
         <v>0.64306712962962964</v>
       </c>
-      <c r="D56" s="21">
+      <c r="D56" s="17">
         <f>C56-B56</f>
         <v>5.0925925925926485E-4</v>
       </c>
@@ -1266,13 +1270,13 @@
       <c r="A57" t="s">
         <v>2</v>
       </c>
-      <c r="B57" s="12">
+      <c r="B57" s="11">
         <v>0.64310185185185187</v>
       </c>
-      <c r="C57" s="12">
+      <c r="C57" s="11">
         <v>0.64334490740740746</v>
       </c>
-      <c r="D57" s="23">
+      <c r="D57" s="19">
         <f t="shared" ref="D57" si="5">C57-B57</f>
         <v>2.4305555555559355E-4</v>
       </c>
@@ -1281,13 +1285,13 @@
       <c r="A58" t="s">
         <v>3</v>
       </c>
-      <c r="B58" s="12">
+      <c r="B58" s="11">
         <v>0.64336805555555554</v>
       </c>
-      <c r="C58" s="12">
+      <c r="C58" s="11">
         <v>0.64337962962962958</v>
       </c>
-      <c r="D58" s="24">
+      <c r="D58" s="20">
         <f>C58-B58</f>
         <v>1.1574074074038876E-5</v>
       </c>
@@ -1296,13 +1300,13 @@
       <c r="A59" t="s">
         <v>9</v>
       </c>
-      <c r="B59" s="12">
+      <c r="B59" s="11">
         <v>0.64339120370370373</v>
       </c>
-      <c r="C59" s="12">
+      <c r="C59" s="11">
         <v>0.64341435185185181</v>
       </c>
-      <c r="D59" s="25">
+      <c r="D59" s="21">
         <f t="shared" ref="D59" si="6">C59-B59</f>
         <v>2.3148148148077752E-5</v>
       </c>
@@ -1327,13 +1331,13 @@
       <c r="A64" t="s">
         <v>0</v>
       </c>
-      <c r="B64" s="12">
+      <c r="B64" s="11">
         <v>0.64496527777777779</v>
       </c>
-      <c r="C64" s="12">
+      <c r="C64" s="11">
         <v>0.64584490740740741</v>
       </c>
-      <c r="D64" s="26">
+      <c r="D64" s="22">
         <f>C64-B64</f>
         <v>8.796296296296191E-4</v>
       </c>
@@ -1342,13 +1346,13 @@
       <c r="A65" t="s">
         <v>1</v>
       </c>
-      <c r="B65" s="12">
+      <c r="B65" s="11">
         <v>0.6458680555555556</v>
       </c>
-      <c r="C65" s="12">
+      <c r="C65" s="11">
         <v>0.64613425925925927</v>
       </c>
-      <c r="D65" s="21">
+      <c r="D65" s="17">
         <f>C65-B65</f>
         <v>2.662037037036713E-4</v>
       </c>
@@ -1357,13 +1361,13 @@
       <c r="A66" t="s">
         <v>2</v>
       </c>
-      <c r="B66" s="12">
+      <c r="B66" s="11">
         <v>0.64615740740740746</v>
       </c>
-      <c r="C66" s="12">
+      <c r="C66" s="11">
         <v>0.64640046296296294</v>
       </c>
-      <c r="D66" s="23">
+      <c r="D66" s="19">
         <f t="shared" ref="D66" si="7">C66-B66</f>
         <v>2.4305555555548253E-4</v>
       </c>
@@ -1372,13 +1376,13 @@
       <c r="A67" t="s">
         <v>3</v>
       </c>
-      <c r="B67" s="12">
+      <c r="B67" s="11">
         <v>0.64642361111111113</v>
       </c>
-      <c r="C67" s="12">
+      <c r="C67" s="11">
         <v>0.64643518518518517</v>
       </c>
-      <c r="D67" s="24">
+      <c r="D67" s="20">
         <f>C67-B67</f>
         <v>1.1574074074038876E-5</v>
       </c>
@@ -1387,107 +1391,128 @@
       <c r="A68" t="s">
         <v>9</v>
       </c>
-      <c r="B68" s="12">
+      <c r="B68" s="11">
         <v>0.64644675925925921</v>
       </c>
-      <c r="C68" s="12">
+      <c r="C68" s="11">
         <v>0.6464699074074074</v>
       </c>
-      <c r="D68" s="25">
+      <c r="D68" s="21">
         <f t="shared" ref="D68" si="8">C68-B68</f>
         <v>2.3148148148188774E-5</v>
       </c>
     </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>26</v>
+      </c>
+      <c r="B70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C70" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="10">
+        <f>AVERAGE(SUM(D4:D10),SUM(D14:D20),SUM(D24:D30))</f>
+        <v>1.7129629629629901E-3</v>
+      </c>
+      <c r="B71" s="10">
+        <f>AVERAGE(SUM(D46:D50),SUM(D55:D59),SUM(D64:D68))</f>
+        <v>1.5316358024690668E-3</v>
+      </c>
+      <c r="C71" s="26">
+        <f>A71-B71</f>
+        <v>1.8132716049392328E-4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B72" s="10"/>
+    </row>
     <row r="89" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A89" s="16"/>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F91" s="10"/>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F92" s="10"/>
+      <c r="A89" s="14"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
-      <c r="D93" s="3"/>
-      <c r="F93" s="3"/>
+      <c r="D93" s="10"/>
+      <c r="F93" s="10"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
-      <c r="D94" s="4"/>
-      <c r="F94" s="4"/>
+      <c r="D94" s="11"/>
+      <c r="F94" s="11"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
-      <c r="D95" s="5"/>
-      <c r="F95" s="5"/>
+      <c r="D95" s="11"/>
+      <c r="F95" s="11"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
-      <c r="D96" s="6"/>
-      <c r="F96" s="6"/>
+      <c r="D96" s="11"/>
+      <c r="F96" s="11"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
-      <c r="D97" s="7"/>
-      <c r="F97" s="7"/>
+      <c r="D97" s="11"/>
+      <c r="F97" s="11"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
-      <c r="D98" s="8"/>
-      <c r="F98" s="8"/>
+      <c r="D98" s="11"/>
+      <c r="F98" s="11"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
-      <c r="D99" s="9"/>
-      <c r="F99" s="9"/>
+      <c r="D99" s="11"/>
+      <c r="F99" s="11"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
-      <c r="D100" s="12"/>
-      <c r="E100" s="17"/>
-      <c r="F100" s="12"/>
+      <c r="D100" s="11"/>
+      <c r="F100" s="11"/>
     </row>
     <row r="101" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A101" s="16"/>
+      <c r="A101" s="14"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
-      <c r="D104" s="15"/>
-      <c r="F104" s="14"/>
+      <c r="D104" s="23"/>
+      <c r="F104" s="24"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
-      <c r="D105" s="5"/>
-      <c r="F105" s="5"/>
+      <c r="D105" s="11"/>
+      <c r="F105" s="11"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
-      <c r="D106" s="7"/>
-      <c r="F106" s="7"/>
+      <c r="D106" s="11"/>
+      <c r="F106" s="11"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
-      <c r="D107" s="8"/>
-      <c r="F107" s="8"/>
+      <c r="D107" s="11"/>
+      <c r="F107" s="11"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
-      <c r="D108" s="9"/>
-      <c r="F108" s="9"/>
+      <c r="D108" s="11"/>
+      <c r="F108" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
